--- a/data/trans_orig/P21D3_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21D3_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>85957</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>70646</v>
+        <v>69131</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>106825</v>
+        <v>105643</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2983357675037629</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2451925539262907</v>
+        <v>0.2399342071956214</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3707625227700682</v>
+        <v>0.3666589098846537</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>84</v>
@@ -762,19 +762,19 @@
         <v>64469</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>51487</v>
+        <v>51696</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>79970</v>
+        <v>79500</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.198881641611576</v>
+        <v>0.1988816416115761</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1588334047704737</v>
+        <v>0.1594756194885743</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2466993121956155</v>
+        <v>0.2452501697651479</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>164</v>
@@ -783,19 +783,19 @@
         <v>150427</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>127823</v>
+        <v>128496</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>173772</v>
+        <v>173414</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.245681957418627</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2087652761634399</v>
+        <v>0.2098629314742595</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2838100493350226</v>
+        <v>0.2832255415760129</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>198530</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>177345</v>
+        <v>180185</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>214157</v>
+        <v>215902</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6890452157272277</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6155191931949959</v>
+        <v>0.6253751640702945</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7432838513442895</v>
+        <v>0.7493412274948502</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>428</v>
@@ -833,19 +833,19 @@
         <v>257178</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>241965</v>
+        <v>242807</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>270316</v>
+        <v>270336</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7933681734057555</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7464361285912887</v>
+        <v>0.7490358496831619</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8338963271431958</v>
+        <v>0.8339597685021786</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>638</v>
@@ -854,19 +854,19 @@
         <v>455708</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>432613</v>
+        <v>432120</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>476867</v>
+        <v>477380</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7442767222318403</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.706557085626098</v>
+        <v>0.7057517807451391</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7788345220257733</v>
+        <v>0.7796718496673837</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>2889</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1053</v>
+        <v>546</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8881</v>
+        <v>9277</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01002779601208731</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.003654629409306485</v>
+        <v>0.001895137595715658</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03082488124395973</v>
+        <v>0.03219952201564069</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>4</v>
@@ -904,19 +904,19 @@
         <v>2512</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>693</v>
+        <v>837</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7108</v>
+        <v>6090</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.007750184982668361</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0021384830695677</v>
+        <v>0.002583431443239448</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02192609534960807</v>
+        <v>0.01878782239623632</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>7</v>
@@ -925,19 +925,19 @@
         <v>5402</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>2272</v>
+        <v>2545</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>10783</v>
+        <v>11676</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.008821964705291244</v>
+        <v>0.008821964705291242</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.00371141217894166</v>
+        <v>0.004156095590119889</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01761043577692654</v>
+        <v>0.01906939604643155</v>
       </c>
     </row>
     <row r="7">
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>3759</v>
+        <v>3800</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.002591220756922153</v>
@@ -966,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01304753710756009</v>
+        <v>0.01318875051269238</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>4133</v>
+        <v>4288</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.001219355644241497</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.006750281372545711</v>
+        <v>0.007003786640381651</v>
       </c>
     </row>
     <row r="8">
@@ -1092,19 +1092,19 @@
         <v>167411</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>144864</v>
+        <v>142699</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>190544</v>
+        <v>189821</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3560361639092159</v>
+        <v>0.3560361639092158</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3080855444884718</v>
+        <v>0.3034810031444517</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4052330179466055</v>
+        <v>0.4036967968706492</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>127</v>
@@ -1113,19 +1113,19 @@
         <v>105546</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>90908</v>
+        <v>88736</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>124826</v>
+        <v>122177</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.2096683159487745</v>
+        <v>0.2096683159487744</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1805905586695737</v>
+        <v>0.1762764333675086</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2479681649487046</v>
+        <v>0.2427063945100501</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>258</v>
@@ -1134,19 +1134,19 @@
         <v>272957</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>243872</v>
+        <v>243562</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>302268</v>
+        <v>305411</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.280357731721543</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2504847385206324</v>
+        <v>0.2501666223977832</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3104637530559104</v>
+        <v>0.313692670044478</v>
       </c>
     </row>
     <row r="10">
@@ -1163,19 +1163,19 @@
         <v>300647</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>276972</v>
+        <v>278515</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>323630</v>
+        <v>325516</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6393924833306019</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5890409605158466</v>
+        <v>0.5923222118768485</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6882690945201287</v>
+        <v>0.692280624101222</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>564</v>
@@ -1184,19 +1184,19 @@
         <v>387742</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>367511</v>
+        <v>371820</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>403604</v>
+        <v>405687</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.7702551152135714</v>
+        <v>0.7702551152135712</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7300672114163638</v>
+        <v>0.7386271338090147</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8017650620395221</v>
+        <v>0.8059044134619573</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>857</v>
@@ -1205,19 +1205,19 @@
         <v>688389</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>658085</v>
+        <v>654802</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>716405</v>
+        <v>718038</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7070540562160096</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6759284247787032</v>
+        <v>0.6725565472952721</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7358301474871337</v>
+        <v>0.7375072300943801</v>
       </c>
     </row>
     <row r="11">
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8390</v>
+        <v>8052</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.004571352760182125</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.0178427633235181</v>
+        <v>0.0171233699735219</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>13</v>
@@ -1255,19 +1255,19 @@
         <v>9357</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5074</v>
+        <v>5304</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>18148</v>
+        <v>18129</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01858836392261073</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01008040973343254</v>
+        <v>0.01053581695691174</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03605139522360524</v>
+        <v>0.03601419157058654</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>15</v>
@@ -1276,19 +1276,19 @@
         <v>11507</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>6286</v>
+        <v>6691</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>20959</v>
+        <v>20354</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01181874652535112</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.006456873740215401</v>
+        <v>0.006872556021506115</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02152725365094471</v>
+        <v>0.02090540227477882</v>
       </c>
     </row>
     <row r="12">
@@ -1321,16 +1321,16 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>4970</v>
+        <v>3731</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.001488204915043586</v>
+        <v>0.001488204915043585</v>
       </c>
       <c r="O12" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.009872884554700128</v>
+        <v>0.007411089628773515</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>3791</v>
+        <v>4222</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0007694655370961412</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.003894079418799279</v>
+        <v>0.004336923710396979</v>
       </c>
     </row>
     <row r="13">
@@ -1443,19 +1443,19 @@
         <v>63272</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>45858</v>
+        <v>46869</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>85565</v>
+        <v>86773</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1680163503187743</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.121773398267898</v>
+        <v>0.1244578663211964</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2272123602587501</v>
+        <v>0.2304200961454372</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>60</v>
@@ -1464,19 +1464,19 @@
         <v>55010</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>42288</v>
+        <v>42229</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>70605</v>
+        <v>70963</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1452788896520792</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1116812432741176</v>
+        <v>0.1115257072984296</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1864661206006315</v>
+        <v>0.1874113160945198</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>101</v>
@@ -1485,19 +1485,19 @@
         <v>118282</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>97807</v>
+        <v>96798</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>144610</v>
+        <v>146343</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1566165312065547</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1295059139762231</v>
+        <v>0.1281699582288178</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1914774829511988</v>
+        <v>0.1937718954225028</v>
       </c>
     </row>
     <row r="15">
@@ -1514,19 +1514,19 @@
         <v>311331</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>288352</v>
+        <v>288184</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>328031</v>
+        <v>327767</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.8267244260231595</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7657051570869903</v>
+        <v>0.7652570936623455</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.8710692096426681</v>
+        <v>0.8703699341062435</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>425</v>
@@ -1535,19 +1535,19 @@
         <v>321079</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>305345</v>
+        <v>305027</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>334184</v>
+        <v>333391</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.8479586443836189</v>
+        <v>0.8479586443836187</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.8064077644714804</v>
+        <v>0.8055658226753097</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.8825684941498126</v>
+        <v>0.8804748686108447</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>696</v>
@@ -1556,19 +1556,19 @@
         <v>632409</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>605525</v>
+        <v>605104</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>653285</v>
+        <v>653911</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.8373705686090457</v>
+        <v>0.8373705686090454</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.8017739653185155</v>
+        <v>0.8012165489812548</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.8650121942546775</v>
+        <v>0.8658417849979853</v>
       </c>
     </row>
     <row r="16">
@@ -1588,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6377</v>
+        <v>7117</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.005259223658066115</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01693472007362263</v>
+        <v>0.0189000174150783</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -1606,19 +1606,19 @@
         <v>2561</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>617</v>
+        <v>637</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5818</v>
+        <v>6135</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.006762465964301895</v>
+        <v>0.006762465964301894</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.001630522941831298</v>
+        <v>0.001682276368310543</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0153649327284044</v>
+        <v>0.0162032737575807</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -1627,19 +1627,19 @@
         <v>4541</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1926</v>
+        <v>1989</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>10152</v>
+        <v>9843</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.006012900184399809</v>
+        <v>0.006012900184399808</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002550018246450275</v>
+        <v>0.002634063155518241</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01344244059518411</v>
+        <v>0.0130329770892799</v>
       </c>
     </row>
     <row r="17">
@@ -1778,19 +1778,19 @@
         <v>156446</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>135811</v>
+        <v>135692</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>179704</v>
+        <v>178581</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.3610069598419212</v>
+        <v>0.3610069598419213</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3133918168860369</v>
+        <v>0.3131161741681516</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4146775206763114</v>
+        <v>0.412085873294312</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>143</v>
@@ -1799,19 +1799,19 @@
         <v>119392</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>101495</v>
+        <v>101716</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>138543</v>
+        <v>139104</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2432920748616378</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2068229464383352</v>
+        <v>0.2072734278892044</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2823172192027238</v>
+        <v>0.2834602931909314</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>267</v>
@@ -1820,19 +1820,19 @@
         <v>275837</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>246126</v>
+        <v>244986</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>308047</v>
+        <v>306746</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2984952229110447</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2663428063524149</v>
+        <v>0.265109925444252</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3333502607217533</v>
+        <v>0.3319427432085055</v>
       </c>
     </row>
     <row r="20">
@@ -1849,19 +1849,19 @@
         <v>276193</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>252744</v>
+        <v>254229</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>296554</v>
+        <v>296764</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.637329832226591</v>
+        <v>0.6373298322265911</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5832203525353153</v>
+        <v>0.5866477215276235</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6843144566002461</v>
+        <v>0.6847990688996758</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>518</v>
@@ -1870,19 +1870,19 @@
         <v>368326</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>348892</v>
+        <v>349477</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>385924</v>
+        <v>386249</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7505617509166362</v>
+        <v>0.7505617509166363</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7109589613854236</v>
+        <v>0.7121515854030905</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7864226971511989</v>
+        <v>0.7870851409885445</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>819</v>
@@ -1891,19 +1891,19 @@
         <v>644519</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>611090</v>
+        <v>613283</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>673168</v>
+        <v>674480</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6974609185757479</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6612860563745286</v>
+        <v>0.6636595420064771</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.728462944313977</v>
+        <v>0.7298829449921727</v>
       </c>
     </row>
     <row r="21">
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>3665</v>
+        <v>3609</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.001663207931487693</v>
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.008456642820901732</v>
+        <v>0.008328957148894088</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>3</v>
@@ -1941,19 +1941,19 @@
         <v>1752</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>4607</v>
+        <v>5090</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.003571062874144967</v>
+        <v>0.003571062874144968</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.0008661808078558984</v>
+        <v>0.000881111619711081</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.00938801480089264</v>
+        <v>0.01037184821792595</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>4</v>
@@ -1962,19 +1962,19 @@
         <v>2473</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>690</v>
+        <v>701</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>5984</v>
+        <v>6116</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.002676362098844181</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0007462494646577009</v>
+        <v>0.0007585987589299499</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.006475074555407334</v>
+        <v>0.006618372648373752</v>
       </c>
     </row>
     <row r="22">
@@ -2007,16 +2007,16 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>4990</v>
+        <v>4353</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.002575111347581026</v>
+        <v>0.002575111347581027</v>
       </c>
       <c r="O22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01016899715927405</v>
+        <v>0.008871188013475018</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2</v>
@@ -2028,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4543</v>
+        <v>5057</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.001367496414363079</v>
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.004916182808880613</v>
+        <v>0.005472900838497957</v>
       </c>
     </row>
     <row r="23">
@@ -2129,19 +2129,19 @@
         <v>473086</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>430789</v>
+        <v>429633</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>516678</v>
+        <v>517756</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3016605519870275</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2746900329731713</v>
+        <v>0.2739528372413423</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3294564995543524</v>
+        <v>0.3301440943185893</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>414</v>
@@ -2150,19 +2150,19 @@
         <v>344416</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>313537</v>
+        <v>316834</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>378918</v>
+        <v>378737</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2029637161447447</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1847668005219414</v>
+        <v>0.1867097311430676</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2232954916611845</v>
+        <v>0.223188950169818</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>790</v>
@@ -2171,19 +2171,19 @@
         <v>817503</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>761887</v>
+        <v>770822</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>869075</v>
+        <v>876098</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2503676150689002</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2333346137727885</v>
+        <v>0.2360711144415325</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2661620829870436</v>
+        <v>0.2683129863578913</v>
       </c>
     </row>
     <row r="25">
@@ -2200,19 +2200,19 @@
         <v>1086701</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1041527</v>
+        <v>1042516</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1127463</v>
+        <v>1130463</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6929280079172188</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6641231956181886</v>
+        <v>0.664754027183208</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.7189198260720646</v>
+        <v>0.7208325216411856</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1935</v>
@@ -2221,19 +2221,19 @@
         <v>1334324</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1299939</v>
+        <v>1297244</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1366595</v>
+        <v>1361627</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.7863137525295735</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.766050795376619</v>
+        <v>0.7644626687931352</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8053306973377089</v>
+        <v>0.8024033857431473</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3010</v>
@@ -2242,19 +2242,19 @@
         <v>2421025</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2369259</v>
+        <v>2362672</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2474316</v>
+        <v>2469219</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.7414607604272213</v>
+        <v>0.7414607604272211</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.7256070384156476</v>
+        <v>0.723589587856315</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7577816928598563</v>
+        <v>0.756220689016021</v>
       </c>
     </row>
     <row r="26">
@@ -2271,19 +2271,19 @@
         <v>7740</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3488</v>
+        <v>3449</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>15181</v>
+        <v>15287</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.00493538132071938</v>
+        <v>0.004935381320719381</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.002224330815906164</v>
+        <v>0.002199060312901889</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.00967977210980355</v>
+        <v>0.0097473612313668</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>24</v>
@@ -2292,19 +2292,19 @@
         <v>16183</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>9692</v>
+        <v>10349</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>24710</v>
+        <v>24072</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.009536365874526852</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.005711698475496064</v>
+        <v>0.006098428079389665</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01456169724755699</v>
+        <v>0.01418557506012528</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>32</v>
@@ -2313,19 +2313,19 @@
         <v>23923</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>16772</v>
+        <v>15835</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>33184</v>
+        <v>34812</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.007326521912671577</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.005136601307045654</v>
+        <v>0.004849525765567204</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01016282711266032</v>
+        <v>0.01066141334315433</v>
       </c>
     </row>
     <row r="27">
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3730</v>
+        <v>3779</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.0004760587750344625</v>
@@ -2354,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.002378676745525109</v>
+        <v>0.002409872754896289</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>3</v>
@@ -2363,19 +2363,19 @@
         <v>2013</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>5550</v>
+        <v>5410</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.001186165451155017</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.000328038622983793</v>
+        <v>0.0003309811454637559</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.003270776074898455</v>
+        <v>0.003188023056097002</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>4</v>
@@ -2387,16 +2387,16 @@
         <v>743</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>6905</v>
+        <v>6451</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.0008451025912070222</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.0002274175890950075</v>
+        <v>0.0002274470431892776</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.002114865679117274</v>
+        <v>0.001975663190756929</v>
       </c>
     </row>
     <row r="28">
